--- a/data/trans_orig/P1435-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1435-Estudios-trans_orig.xlsx
@@ -624,19 +624,19 @@
         <v>46199</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>33308</v>
+        <v>33803</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>61928</v>
+        <v>61324</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03512916696475812</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02532707145484805</v>
+        <v>0.02570321264771791</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0470891866027139</v>
+        <v>0.04663048832643473</v>
       </c>
     </row>
     <row r="5">
@@ -653,19 +653,19 @@
         <v>1268914</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1253185</v>
+        <v>1253789</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1281805</v>
+        <v>1281310</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9648708330352419</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9529108133972862</v>
+        <v>0.9533695116735653</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9746729285451521</v>
+        <v>0.9742967873522822</v>
       </c>
     </row>
     <row r="6">
@@ -715,19 +715,19 @@
         <v>162412</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>140539</v>
+        <v>139282</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>187926</v>
+        <v>186197</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1022958851398853</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08851858189715703</v>
+        <v>0.0877274045432912</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1183659567916962</v>
+        <v>0.1172767271978444</v>
       </c>
     </row>
     <row r="8">
@@ -744,19 +744,19 @@
         <v>1425261</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1399747</v>
+        <v>1401476</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1447134</v>
+        <v>1448391</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8977041148601147</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8816340432083039</v>
+        <v>0.8827232728021555</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9114814181028431</v>
+        <v>0.9122725954567088</v>
       </c>
     </row>
     <row r="9">
@@ -806,19 +806,19 @@
         <v>51535</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>39245</v>
+        <v>38433</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>66335</v>
+        <v>64129</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1081730232231552</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08237562418220745</v>
+        <v>0.08067221187225439</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1392386492216235</v>
+        <v>0.1346088592694055</v>
       </c>
     </row>
     <row r="11">
@@ -835,19 +835,19 @@
         <v>424877</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>410077</v>
+        <v>412283</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>437167</v>
+        <v>437979</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8918269767768449</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8607613507783765</v>
+        <v>0.8653911407305944</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9176243758177925</v>
+        <v>0.9193277881277456</v>
       </c>
     </row>
     <row r="12">
@@ -897,19 +897,19 @@
         <v>260146</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>228586</v>
+        <v>230740</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>290272</v>
+        <v>293342</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07698458953858449</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06764500949734679</v>
+        <v>0.06828254962595506</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08589958562016063</v>
+        <v>0.08680813227985446</v>
       </c>
     </row>
     <row r="14">
@@ -926,19 +926,19 @@
         <v>3119051</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3088925</v>
+        <v>3085855</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3150611</v>
+        <v>3148457</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9230154104614156</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9141004143798394</v>
+        <v>0.9131918677201458</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9323549905026531</v>
+        <v>0.931717450374045</v>
       </c>
     </row>
     <row r="15">
@@ -1105,19 +1105,19 @@
         <v>14636</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8264</v>
+        <v>8154</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>23570</v>
+        <v>22918</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01094055358469928</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.00617750026731021</v>
+        <v>0.006094841311474725</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01761843154792957</v>
+        <v>0.01713139080609878</v>
       </c>
     </row>
     <row r="5">
@@ -1134,19 +1134,19 @@
         <v>1323161</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1314227</v>
+        <v>1314879</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1329533</v>
+        <v>1329643</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9890594464153007</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9823815684520704</v>
+        <v>0.9828686091939012</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9938224997326898</v>
+        <v>0.9939051586885252</v>
       </c>
     </row>
     <row r="6">
@@ -1196,19 +1196,19 @@
         <v>92925</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>74735</v>
+        <v>73212</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>111199</v>
+        <v>111228</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05296105779236104</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04259387157841792</v>
+        <v>0.04172575471232035</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06337576896958004</v>
+        <v>0.06339243723380639</v>
       </c>
     </row>
     <row r="8">
@@ -1225,19 +1225,19 @@
         <v>1661667</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1643393</v>
+        <v>1643364</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1679857</v>
+        <v>1681380</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.947038942207639</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.93662423103042</v>
+        <v>0.9366075627661936</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.957406128421582</v>
+        <v>0.9582742452876797</v>
       </c>
     </row>
     <row r="9">
@@ -1287,19 +1287,19 @@
         <v>29848</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>20171</v>
+        <v>20343</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>42104</v>
+        <v>42791</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06508098629138444</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04398089775610351</v>
+        <v>0.04435584066035324</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09180274305745845</v>
+        <v>0.09330198433261827</v>
       </c>
     </row>
     <row r="11">
@@ -1316,19 +1316,19 @@
         <v>428783</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>416527</v>
+        <v>415840</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>438460</v>
+        <v>438288</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9349190137086155</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9081972569425415</v>
+        <v>0.9066980156673816</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9560191022438964</v>
+        <v>0.9556441593396467</v>
       </c>
     </row>
     <row r="12">
@@ -1378,19 +1378,19 @@
         <v>137409</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>115155</v>
+        <v>115647</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>163402</v>
+        <v>161843</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03869577217810736</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03242882991068626</v>
+        <v>0.03256731180920158</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04601545037149171</v>
+        <v>0.04557651384270102</v>
       </c>
     </row>
     <row r="14">
@@ -1407,19 +1407,19 @@
         <v>3413611</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3387618</v>
+        <v>3389177</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3435865</v>
+        <v>3435373</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9613042278218926</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9539845496285084</v>
+        <v>0.9544234861572991</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9675711700893138</v>
+        <v>0.9674326881907985</v>
       </c>
     </row>
     <row r="15">
@@ -1586,19 +1586,19 @@
         <v>3785</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>959</v>
+        <v>952</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9414</v>
+        <v>9205</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.003805560283620801</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0009639546680519611</v>
+        <v>0.000957245131587533</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.009464460169989714</v>
+        <v>0.009253933027476277</v>
       </c>
     </row>
     <row r="5">
@@ -1615,19 +1615,19 @@
         <v>990875</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>985246</v>
+        <v>985455</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>993701</v>
+        <v>993708</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9961944397163792</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9905355398300103</v>
+        <v>0.9907460669725251</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.999036045331948</v>
+        <v>0.9990427548684124</v>
       </c>
     </row>
     <row r="6">
@@ -1677,19 +1677,19 @@
         <v>43823</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>32655</v>
+        <v>32263</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>59172</v>
+        <v>57887</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02204056602892547</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01642376927623981</v>
+        <v>0.01622651562960557</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02976014906267188</v>
+        <v>0.02911393867842854</v>
       </c>
     </row>
     <row r="8">
@@ -1706,19 +1706,19 @@
         <v>1944477</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1929128</v>
+        <v>1930413</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1955645</v>
+        <v>1956037</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9779594339710745</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9702398509373281</v>
+        <v>0.9708860613215714</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9835762307237601</v>
+        <v>0.9837734843703944</v>
       </c>
     </row>
     <row r="9">
@@ -1768,19 +1768,19 @@
         <v>18779</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11454</v>
+        <v>12366</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>28713</v>
+        <v>29173</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03419796298055171</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0208587715984939</v>
+        <v>0.02251854424229959</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05228633631925766</v>
+        <v>0.05312518710036305</v>
       </c>
     </row>
     <row r="11">
@@ -1797,19 +1797,19 @@
         <v>530361</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>520427</v>
+        <v>519967</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>537686</v>
+        <v>536774</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9658020370194483</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9477136636807425</v>
+        <v>0.9468748128996368</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9791412284015061</v>
+        <v>0.9774814557577004</v>
       </c>
     </row>
     <row r="12">
@@ -1859,19 +1859,19 @@
         <v>66388</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>51637</v>
+        <v>52211</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>82759</v>
+        <v>84395</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01879560841643444</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01461923557507334</v>
+        <v>0.0147818630911986</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02343042805908137</v>
+        <v>0.02389382030068255</v>
       </c>
     </row>
     <row r="14">
@@ -1888,19 +1888,19 @@
         <v>3465712</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3449341</v>
+        <v>3447705</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3480463</v>
+        <v>3479889</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9812043915835655</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9765695719409186</v>
+        <v>0.9761061796993173</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9853807644249266</v>
+        <v>0.9852181369088013</v>
       </c>
     </row>
     <row r="15">
@@ -2067,19 +2067,19 @@
         <v>11288</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6227</v>
+        <v>6295</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>18343</v>
+        <v>18596</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01375453098829089</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.007587041049957693</v>
+        <v>0.007670727812617559</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02235028774318497</v>
+        <v>0.02265839346363595</v>
       </c>
     </row>
     <row r="5">
@@ -2096,19 +2096,19 @@
         <v>809421</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>802366</v>
+        <v>802113</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>814482</v>
+        <v>814414</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9862454690117091</v>
+        <v>0.986245469011709</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.977649712256815</v>
+        <v>0.977341606536364</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9924129589500422</v>
+        <v>0.9923292721873824</v>
       </c>
     </row>
     <row r="6">
@@ -2158,19 +2158,19 @@
         <v>144311</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>121683</v>
+        <v>123730</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>172143</v>
+        <v>171811</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.06662585780487809</v>
+        <v>0.06662585780487808</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05617892484500273</v>
+        <v>0.05712361923228985</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0794754409436931</v>
+        <v>0.07932185627613107</v>
       </c>
     </row>
     <row r="8">
@@ -2187,19 +2187,19 @@
         <v>2021685</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1993853</v>
+        <v>1994185</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2044313</v>
+        <v>2042266</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9333741421951222</v>
+        <v>0.9333741421951218</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.920524559056307</v>
+        <v>0.920678143723869</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9438210751549975</v>
+        <v>0.9428763807677101</v>
       </c>
     </row>
     <row r="9">
@@ -2249,19 +2249,19 @@
         <v>73333</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>58898</v>
+        <v>57439</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>89543</v>
+        <v>89652</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1004019566486176</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08063905297661446</v>
+        <v>0.07864145786397646</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1225958431999447</v>
+        <v>0.1227453137793189</v>
       </c>
     </row>
     <row r="11">
@@ -2278,19 +2278,19 @@
         <v>657061</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>640851</v>
+        <v>640742</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>671496</v>
+        <v>672955</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8995980433513825</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8774041568000557</v>
+        <v>0.8772546862206809</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9193609470233858</v>
+        <v>0.9213585421360236</v>
       </c>
     </row>
     <row r="12">
@@ -2340,19 +2340,19 @@
         <v>228933</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>201376</v>
+        <v>202111</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>261056</v>
+        <v>258134</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.06158911292111122</v>
+        <v>0.06158911292111124</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05417548344182875</v>
+        <v>0.05437320797597001</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07023102763623283</v>
+        <v>0.06944494627532512</v>
       </c>
     </row>
     <row r="14">
@@ -2369,19 +2369,19 @@
         <v>3488166</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3456043</v>
+        <v>3458965</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3515723</v>
+        <v>3514988</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9384108870788888</v>
+        <v>0.938410887078889</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9297689723637672</v>
+        <v>0.930555053724675</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9458245165581715</v>
+        <v>0.94562679202403</v>
       </c>
     </row>
     <row r="15">
